--- a/Examples/Data/Articles/FindCellsWithSpecificStyle/output.xlsx
+++ b/Examples/Data/Articles/FindCellsWithSpecificStyle/output.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="480" yWindow="90" windowWidth="11355" windowHeight="9210" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
-    <sheet name="Evaluation Warning" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="Evaluation Warning" sheetId="8" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
@@ -48,7 +48,7 @@
     <t xml:space="preserve">Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. </t>
   </si>
   <si>
-    <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2014 Aspose Pty Ltd.</t>
+    <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2016 Aspose Pty Ltd.</t>
   </si>
   <si>
     <t>Mary</t>
@@ -79,9 +79,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -98,7 +104,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9.15"/>
+      <sz val="9.2"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -133,7 +139,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399980008602142"/>
+        <fgColor theme="3" tint="0.39998"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,25 +158,25 @@
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -180,15 +186,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
     </xf>
@@ -280,6 +286,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
@@ -295,12 +302,13 @@
         <a:solidFill>
           <a:srgbClr val="C0C0C0"/>
         </a:solidFill>
-        <a:ln w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="808080"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:sideWall>
     <c:backWall>
@@ -308,12 +316,13 @@
         <a:solidFill>
           <a:srgbClr val="C0C0C0"/>
         </a:solidFill>
-        <a:ln w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="808080"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:backWall>
     <c:plotArea>
@@ -334,12 +343,13 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="12700">
+            <a:ln w="12700" cap="flat" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:explosion val="0"/>
           <c:cat>
@@ -366,6 +376,7 @@
             <c:numRef>
               <c:f>'[1]Sheet2'!$A$1:$A$4</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
@@ -387,12 +398,13 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="12700">
+            <a:ln w="12700" cap="flat" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:explosion val="0"/>
           <c:cat>
@@ -419,6 +431,7 @@
             <c:numRef>
               <c:f>'[1]Sheet2'!$B$1:$B$4</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
@@ -446,19 +459,20 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="3175">
+        <a:ln w="3175" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr vert="horz" rot="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" sz="915" b="0" i="0" u="none" baseline="0">
+            <a:defRPr lang="en-US" sz="920" b="0" i="0" u="none" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -472,17 +486,19 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
       <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
-    <a:ln w="3175">
+    <a:ln w="3175" cap="flat" cmpd="sng">
       <a:solidFill>
         <a:srgbClr val="000000"/>
       </a:solidFill>
       <a:prstDash val="solid"/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
   <c:txPr>
     <a:bodyPr vert="horz" rot="0"/>
@@ -504,7 +520,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -884,14 +900,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="20.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="11.4285714285714" bestFit="1" customWidth="1"/>
@@ -1011,12 +1027,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="5" ht="23.25" customHeight="1">
       <c r="A5" s="7" t="s">
@@ -1025,6 +1041,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>